--- a/xlsx/汉字_intext.xlsx
+++ b/xlsx/汉字_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1138">
   <si>
     <t>汉字</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
+    <t>越南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E5%90%8D_(%E6%97%A5%E6%96%87)</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>諺文</t>
+    <t>谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%83%E5%AD%97</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A6%A5%E7%91%AA%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>威妥瑪拼音</t>
+    <t>威妥玛拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>注音符號</t>
+    <t>注音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E8%AF%AD</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E5%B7%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>潮州話</t>
+    <t>潮州话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E5%B7%9E%E8%A9%B1%E6%8B%BC%E9%9F%B3%E6%96%B9%E6%A1%88</t>
   </si>
   <si>
-    <t>潮州話拼音方案</t>
+    <t>潮州话拼音方案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E8%AF%AD</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%8B%BC</t>
   </si>
   <si>
-    <t>粵拼</t>
+    <t>粤拼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A3%E8%AF%AD</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>客家語</t>
+    <t>客家语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AF%9D%E6%8B%BC%E9%9F%B3%E6%96%B9%E6%A1%88</t>
@@ -263,9 +263,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
   </si>
   <si>
-    <t>越南语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AE%E8%AF%AD</t>
   </si>
   <si>
@@ -275,13 +272,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B0%9A%E6%96%87</t>
   </si>
   <si>
-    <t>谚文</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%A7%82%E5%85%89%E9%83%A82000%E5%B9%B4%E5%BC%8F</t>
@@ -317,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E4%BB%A4%E5%BC%8F%E7%BE%85%E9%A6%AC%E5%AD%97</t>
   </si>
   <si>
-    <t>訓令式羅馬字</t>
+    <t>训令式罗马字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E5%AD%97%E4%BD%93%E9%A3%8E%E6%A0%BC</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E8%9F%B2%E6%9B%B8</t>
   </si>
   <si>
-    <t>鳥蟲書</t>
+    <t>鸟虫书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E4%B9%A6</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E7%99%BD%E6%9B%B8</t>
   </si>
   <si>
-    <t>飛白書</t>
+    <t>飞白书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E7%89%88%E5%8D%B0%E5%88%B7</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%BF%E5%AE%8B%E9%AB%94</t>
   </si>
   <si>
-    <t>仿宋體</t>
+    <t>仿宋体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E4%BD%93</t>
@@ -491,19 +485,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>合體</t>
+    <t>合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E9%AB%94</t>
   </si>
   <si>
-    <t>獨體</t>
+    <t>独体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E9%83%A8%E4%BB%B6</t>
   </si>
   <si>
-    <t>漢字部件</t>
+    <t>汉字部件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%97%E5%AD%97</t>
@@ -539,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B8%E8%AE%8A</t>
   </si>
   <si>
-    <t>隸變</t>
+    <t>隶变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B6%E5%AE%9A</t>
@@ -563,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%90%8C%E6%BA%90%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字同源詞</t>
+    <t>汉字同源词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%96%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>右文說</t>
+    <t>右文说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%BD%A2%E5%BC%82%E4%B9%89%E8%AF%8D</t>
@@ -617,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AD%97%E6%A8%99%E6%BA%96%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>國字標準字體</t>
+    <t>国字标准字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E5%AD%97%E5%AD%97%E5%BD%A2%E8%A1%A8</t>
@@ -641,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>新加坡漢字</t>
+    <t>新加坡汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣漢字</t>
+    <t>台湾汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%97</t>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>琉球漢字</t>
+    <t>琉球汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>粵語字</t>
+    <t>粤语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B7%9D%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>南京話</t>
+    <t>南京话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AF%9D%E6%AD%A3%E9%9F%B3%E6%AD%A3%E5%AD%97</t>
@@ -701,25 +695,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%AE%A2%E5%AE%B6%E8%AA%9E%E6%9B%B8%E5%AF%AB%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>台灣客家語書寫推薦用字</t>
+    <t>台湾客家语书写推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%96%A9%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>台閩漢字</t>
+    <t>台闽汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣閩南語推薦用字</t>
+    <t>台湾闽南语推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E7%94%A8%E8%A9%9E</t>
   </si>
   <si>
-    <t>台灣閩南語用詞</t>
+    <t>台湾闽南语用词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E7%AE%80%E5%8C%96</t>
@@ -731,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E7%B0%A1%E5%8C%96%E7%88%AD%E8%AB%96</t>
   </si>
   <si>
-    <t>漢字簡化爭論</t>
+    <t>汉字简化争论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E7%B0%A1%E8%BD%89%E6%8F%9B</t>
   </si>
   <si>
-    <t>繁簡轉換</t>
+    <t>繁简转换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E7%AE%80%E5%8C%96%E6%96%B9%E6%A1%88</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>舊字體</t>
+    <t>旧字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%B0%E5%AD%97%E4%BD%93</t>
@@ -779,19 +773,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E5%BC%B5%E6%96%B0%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>擴張新字體</t>
+    <t>扩张新字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>當用漢字</t>
+    <t>当用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>常用漢字</t>
+    <t>常用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E9%9F%B3%E6%B1%89%E5%AD%97%E4%B9%A6%E5%86%99%E8%A7%84%E5%88%99</t>
@@ -821,15 +815,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E6%BC%A2%E5%AD%97%E5%80%9F%E9%9F%B3</t>
   </si>
   <si>
-    <t>閩南語漢字借音</t>
+    <t>闽南语汉字借音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E5%8F%B7</t>
   </si>
   <si>
-    <t>注音符号</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B1%E5%96%83%E5%AD%97</t>
   </si>
   <si>
@@ -839,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%91%89%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>萬葉假名</t>
+    <t>万叶假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%87%E5%81%87%E5%90%8D</t>
@@ -851,19 +842,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A8%A3_(%E6%9C%9D%E9%AE%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>口訣 (朝鮮語)</t>
+    <t>口诀 (朝鲜语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8F%E8%AE%80</t>
   </si>
   <si>
-    <t>吏讀</t>
+    <t>吏读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9C%AD</t>
   </si>
   <si>
-    <t>鄉札</t>
+    <t>乡札</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E5%9B%BD%E5%AD%97</t>
@@ -911,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AE%80</t>
   </si>
   <si>
-    <t>音讀</t>
+    <t>音读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97%E9%9F%B3</t>
   </si>
   <si>
-    <t>朝鮮漢字音</t>
+    <t>朝鲜汉字音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%B6%8A%E8%AF%8D</t>
@@ -929,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%BC%A2%E8%B6%8A%E8%AA%9E</t>
   </si>
   <si>
-    <t>古漢越語</t>
+    <t>古汉越语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%83%E9%9F%B3</t>
@@ -941,31 +932,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%B6%8A%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢越音</t>
+    <t>汉越音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9F%B3_(%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3)</t>
   </si>
   <si>
-    <t>古音 (日本漢字音)</t>
+    <t>古音 (日本汉字音)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E9%9F%B3</t>
   </si>
   <si>
-    <t>吳音</t>
+    <t>吴音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢音</t>
+    <t>汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>新漢音</t>
+    <t>新汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E9%9F%B3</t>
@@ -983,13 +974,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%A3%E7%94%A8%E9%9F%B3</t>
   </si>
   <si>
-    <t>慣用音</t>
+    <t>惯用音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3%E7%9A%84%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>日本漢字音的聲調</t>
+    <t>日本汉字音的声调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E8%B6%8A%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>中日韓越統一表意文字</t>
+    <t>中日韩越统一表意文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E8%BE%93%E5%85%A5%E6%8A%80%E6%9C%AF</t>
@@ -1019,13 +1010,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字詞</t>
+    <t>汉字词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AF%E5%88%A5%E5%AD%97</t>
   </si>
   <si>
-    <t>錯別字</t>
+    <t>错别字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%AC%94%E5%BF%98%E5%AD%97</t>
@@ -1037,19 +1028,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>廢除漢字</t>
+    <t>废除汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>漢字復活</t>
+    <t>汉字复活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E8%AC%8E</t>
   </si>
   <si>
-    <t>字謎</t>
+    <t>字谜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
@@ -1097,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1109,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
+    <t>朝鲜民主主义人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
@@ -1121,15 +1112,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
   </si>
   <si>
-    <t>漢字文化圈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
   </si>
   <si>
@@ -1163,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A7%8B%E6%88%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>春秋戰國</t>
+    <t>春秋战国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E6%9C%9D</t>
@@ -1175,13 +1163,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>少數民族</t>
+    <t>少数民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%97%8F</t>
   </si>
   <si>
-    <t>漢族</t>
+    <t>汉族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9F%83%E5%8F%8A</t>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>國家統一</t>
+    <t>国家统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A4%A7%E5%8F%91%E6%98%8E</t>
@@ -1217,13 +1205,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/De_facto</t>
@@ -1241,19 +1229,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E8%AA%9E</t>
   </si>
   <si>
-    <t>通用語</t>
+    <t>通用语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83</t>
@@ -1265,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E9%9D%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>書面語</t>
+    <t>书面语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E4%BD%93%E4%B8%AD%E6%96%87</t>
@@ -1277,21 +1265,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
@@ -1301,13 +1280,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%9C%9D</t>
@@ -1319,13 +1298,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>東方世界</t>
+    <t>东方世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%8B</t>
   </si>
   <si>
-    <t>大國</t>
+    <t>大国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%8F%B2</t>
@@ -1349,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E6%B0%91%E6%AD%A3%E9%9F%B3</t>
   </si>
   <si>
-    <t>訓民正音</t>
+    <t>训民正音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>漢字歷史</t>
+    <t>汉字历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%B9%A6%E5%AD%97</t>
@@ -1379,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>瑪雅文字</t>
+    <t>玛雅文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%93%E9%A2%89%E9%80%A0%E5%AD%97</t>
@@ -1403,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%80%E5%AD%90_(%E6%9B%B8)</t>
   </si>
   <si>
-    <t>荀子 (書)</t>
+    <t>荀子 (书)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%85%B0</t>
@@ -1463,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%B9%96%E9%81%BA%E5%9D%80</t>
   </si>
   <si>
-    <t>賈湖遺址</t>
+    <t>贾湖遗址</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%B9%96%E5%A5%91%E5%88%BB%E7%AC%A6%E5%8F%B7</t>
@@ -1493,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%B0%8F%E7%9B%A4</t>
   </si>
   <si>
-    <t>散氏盤</t>
+    <t>散氏盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%85%AC%E9%BC%8E</t>
@@ -1511,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>戰國</t>
+    <t>战国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E5%A7%8B%E7%9A%87</t>
@@ -1565,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E9%BE%91</t>
   </si>
   <si>
-    <t>劉龑</t>
+    <t>刘龑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%A4%E9%85%92</t>
@@ -1871,9 +1850,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E7%B0%A1%E5%8C%96</t>
   </si>
   <si>
-    <t>漢字簡化</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E9%98%B3%E8%AF%A2</t>
   </si>
   <si>
@@ -1901,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>國民政府</t>
+    <t>国民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
@@ -1913,9 +1889,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%8C%96%E5%AD%97</t>
   </si>
   <si>
-    <t>簡化字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
@@ -1943,7 +1916,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7%E8%A1%93</t>
   </si>
   <si>
-    <t>印刷術</t>
+    <t>印刷术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%A2%E7%AC%94%E5%AD%97</t>
@@ -1955,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%9F%BA%E5%9B%A0</t>
   </si>
   <si>
-    <t>漢字基因</t>
+    <t>汉字基因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E8%81%94</t>
@@ -1973,9 +1946,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%9B%B8</t>
   </si>
   <si>
-    <t>六書</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E5%AD%97%E5%85%AB%E6%B3%95</t>
   </si>
   <si>
@@ -1985,13 +1955,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E7%A6%AE</t>
   </si>
   <si>
-    <t>周禮</t>
+    <t>周礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E6%85%8E</t>
   </si>
   <si>
-    <t>許慎</t>
+    <t>许慎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%B4%E6%96%87%E8%A7%A3%E5%AD%97</t>
@@ -2015,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E8%99%9F</t>
   </si>
   <si>
-    <t>記號</t>
+    <t>记号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%86%E5%AD%97</t>
@@ -2027,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%BE</t>
   </si>
   <si>
-    <t>鈾</t>
+    <t>铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B4%A0</t>
@@ -2039,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%8E</t>
   </si>
   <si>
-    <t>豎</t>
+    <t>竖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%BA</t>
@@ -2057,19 +2027,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%86%E9%A0%86</t>
   </si>
   <si>
-    <t>筆順</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E8%AE%80</t>
   </si>
   <si>
-    <t>訓讀</t>
+    <t>训读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代標準漢語</t>
+    <t>现代标准汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%B0%E6%AF%8D</t>
@@ -2099,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>朝鮮語</t>
+    <t>朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86</t>
@@ -2159,13 +2126,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%BD%99</t>
   </si>
   <si>
-    <t>詞彙</t>
+    <t>词汇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E9%82%A6%E5%BE%A9</t>
   </si>
   <si>
-    <t>朱邦復</t>
+    <t>朱邦复</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%90%88</t>
@@ -2183,7 +2150,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E9%87%8E%E7%8E%8B</t>
   </si>
   <si>
-    <t>顧野王</t>
+    <t>顾野王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%AF%87</t>
@@ -2201,13 +2168,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E7%AF%87</t>
   </si>
   <si>
-    <t>類篇</t>
+    <t>类篇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%9F%BB</t>
   </si>
   <si>
-    <t>集韻</t>
+    <t>集韵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E5%A4%A7%E5%AD%97%E5%85%B8</t>
@@ -2225,13 +2192,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%98%94%E6%96%87%E5%AD%97%E9%8F%A1</t>
   </si>
   <si>
-    <t>今昔文字鏡</t>
+    <t>今昔文字镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BA%94%E7%A2%BC</t>
   </si>
   <si>
-    <t>大五碼</t>
+    <t>大五码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GB_18030</t>
@@ -2273,7 +2240,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>山西大學</t>
+    <t>山西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%B1%80_(%E9%A6%99%E6%B8%AF)</t>
@@ -2285,31 +2252,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國教育部</t>
+    <t>中华民国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E5%9C%8B%E5%AD%97%E6%A8%99%E6%BA%96%E5%AD%97%E9%AB%94%E8%A1%A8</t>
   </si>
   <si>
-    <t>常用國字標準字體表</t>
+    <t>常用国字标准字体表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E8%83%BD%E5%8A%9B%E6%AA%A2%E5%AE%9A</t>
   </si>
   <si>
-    <t>日本漢字能力檢定</t>
+    <t>日本汉字能力检定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>日本內閣</t>
+    <t>日本内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%83%A8%E7%A7%91%E5%AD%B8%E7%9C%81</t>
   </si>
   <si>
-    <t>文部科學省</t>
+    <t>文部科学省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B1%89%E5%AD%97%E8%83%BD%E5%8A%9B%E6%A3%80%E5%AE%9A%E5%8D%8F%E4%BC%9A</t>
@@ -2321,13 +2288,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%94%A8%E5%9F%BA%E7%A4%8E%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>教育用基礎漢字</t>
+    <t>教育用基础汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>辭典</t>
+    <t>辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%A3%AE%E5%AD%97</t>
@@ -2357,7 +2324,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%9F%E5%90%88%E5%8F%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>察合台語</t>
+    <t>察合台语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
@@ -2375,25 +2342,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>琉球群島</t>
+    <t>琉球群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BE%85%E6%B4%B2</t>
   </si>
   <si>
-    <t>婆羅洲</t>
+    <t>婆罗洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E8%8A%B3%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘭芳共和國</t>
+    <t>兰芳共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
@@ -2417,13 +2384,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E8%81%B0</t>
   </si>
   <si>
-    <t>薛聰</t>
+    <t>薛聪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E4%B8%96%E5%AE%97</t>
   </si>
   <si>
-    <t>朝鮮世宗</t>
+    <t>朝鲜世宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%98%8E%E5%8D%9A</t>
@@ -2435,13 +2402,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>國語字</t>
+    <t>国语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%88%E8%AC%8E</t>
   </si>
   <si>
-    <t>燈謎</t>
+    <t>灯谜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B9%A6%E4%BA%94%E7%BB%8F</t>
@@ -2495,19 +2462,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>廟會</t>
+    <t>庙会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E5%AD%97</t>
   </si>
   <si>
-    <t>測字</t>
+    <t>测字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
   </si>
   <si>
-    <t>梁啟超</t>
+    <t>梁启超</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E5%88%BB</t>
@@ -2531,15 +2498,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%B0%BA%E8%AD%9C</t>
   </si>
   <si>
-    <t>工尺譜</t>
+    <t>工尺谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%9B%E5%AD%97%E8%AD%9C</t>
   </si>
   <si>
-    <t>減字譜</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E6%8B%89%E4%B8%81%E5%8C%96</t>
   </si>
   <si>
@@ -2549,25 +2513,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%81%A0%E6%9D%B1%E5%AD%B8%E9%99%A2%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>法國遠東學院拼音</t>
+    <t>法国远东学院拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E6%94%BF%E5%BC%8F%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>郵政式拼音</t>
+    <t>邮政式拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%BC%8F%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>德國式拼音</t>
+    <t>德国式拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E%E7%BE%85%E9%A6%AC%E5%AD%97</t>
   </si>
   <si>
-    <t>國語羅馬字</t>
+    <t>国语罗马字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%8C%96%E6%96%B0%E6%96%87%E5%AD%97</t>
@@ -2579,7 +2543,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>耶魯拼音</t>
+    <t>耶鲁拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E6%8B%BC%E9%9F%B3</t>
@@ -2597,7 +2561,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F%E7%AC%AC%E4%BA%8C%E5%BC%8F</t>
   </si>
   <si>
-    <t>國語注音符號第二式</t>
+    <t>国语注音符号第二式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%A4%E8%AF%AD%E6%8B%BC%E9%9F%B3</t>
@@ -2621,7 +2585,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>正體</t>
+    <t>正体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E4%BF%A1%E6%81%AF%E5%A4%84%E7%90%86</t>
@@ -2633,13 +2597,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E6%89%93%E5%AD%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>中文打字機</t>
+    <t>中文打字机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E8%A8%88%E7%AE%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子計算機</t>
+    <t>电子计算机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AD%A6%E5%AD%97%E7%AC%A6%E8%AF%86%E5%88%AB</t>
@@ -2651,13 +2615,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E6%A8%99%E6%BA%96%E4%BA%A4%E6%8F%9B%E7%A2%BC</t>
   </si>
   <si>
-    <t>中文標準交換碼</t>
+    <t>中文标准交换码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A2%9E%E8%A3%9C%E5%AD%97%E7%AC%A6%E9%9B%86</t>
   </si>
   <si>
-    <t>香港增補字符集</t>
+    <t>香港增补字符集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%B7%A5%E4%B8%9A%E8%A7%84%E6%A0%BC</t>
@@ -2693,7 +2657,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E6%85%8B%E9%80%A0%E5%AD%97</t>
   </si>
   <si>
-    <t>動態造字</t>
+    <t>动态造字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6</t>
@@ -2711,13 +2675,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B7%B4%E6%96%87</t>
   </si>
   <si>
-    <t>東巴文</t>
+    <t>东巴文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E7%82%BA%E6%96%87</t>
   </si>
   <si>
-    <t>蔣為文</t>
+    <t>蒋为文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%A5%BF%E8%8E%89</t>
@@ -2729,7 +2693,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E9%A0%AD%E9%B7%B9%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>貓頭鷹出版社</t>
+    <t>猫头鹰出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%A2%B5</t>
@@ -2741,25 +2705,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%88%90%E5%8A%9F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立成功大學</t>
+    <t>国立成功大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E9%AB%94</t>
   </si>
   <si>
-    <t>書體</t>
+    <t>书体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AD%97</t>
   </si>
   <si>
-    <t>國字</t>
+    <t>国字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%B3%95</t>
@@ -2777,37 +2741,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E6%94%B9%E9%9D%A9%E5%8F%B2</t>
   </si>
   <si>
-    <t>日本漢字改革史</t>
+    <t>日本汉字改革史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E5%B0%8D</t>
   </si>
   <si>
-    <t>校對</t>
+    <t>校对</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%AD%97%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>中國文字博物館</t>
+    <t>中国文字博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E7%B4%A0</t>
   </si>
   <si>
-    <t>語素</t>
+    <t>语素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%A9%9E</t>
   </si>
   <si>
-    <t>單詞</t>
+    <t>单词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E7%B5%84</t>
   </si>
   <si>
-    <t>詞組</t>
+    <t>词组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A5%E5%AD%90</t>
@@ -2825,7 +2789,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80</t>
   </si>
   <si>
-    <t>節</t>
+    <t>节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%AF%E7%94%A8%E8%AF%AD</t>
@@ -2837,25 +2801,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E8%AA%9E</t>
   </si>
   <si>
-    <t>成語</t>
+    <t>成语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E8%AA%9E</t>
   </si>
   <si>
-    <t>諺語</t>
+    <t>谚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>俗語</t>
+    <t>俗语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%87%E5%BE%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>歇後語</t>
+    <t>歇后语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%A8%80</t>
@@ -2873,9 +2837,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
   </si>
   <si>
-    <t>汉语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
@@ -2885,9 +2846,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E8%AF%AD</t>
   </si>
   <si>
-    <t>通用语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%AF%9D</t>
   </si>
   <si>
@@ -2897,13 +2855,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>中華民國國語</t>
+    <t>中华民国国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%A6%AC%E8%8F%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>新馬華語</t>
+    <t>新马华语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%AE%98%E8%AF%9D</t>
@@ -2969,7 +2927,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>吳語方言</t>
+    <t>吴语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E6%B9%96%E7%89%87</t>
@@ -2999,7 +2957,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%BA%97%E7%89%87</t>
   </si>
   <si>
-    <t>上麗片</t>
+    <t>上丽片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%B7%9E%E7%89%87</t>
@@ -3011,9 +2969,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩南語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%89%E6%BC%B3%E7%89%87</t>
   </si>
   <si>
@@ -3023,13 +2978,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%95%E8%A9%B1</t>
   </si>
   <si>
-    <t>潮汕話</t>
+    <t>潮汕话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%99%E5%8D%97%E9%96%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>浙南閩語</t>
+    <t>浙南闽语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%94%B0%E8%AF%9D</t>
@@ -3041,13 +2996,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E9%96%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>中山閩語</t>
+    <t>中山闽语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E6%9D%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩東語</t>
+    <t>闽东语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E5%AE%98%E7%89%87</t>
@@ -3071,19 +3026,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8C%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩北語</t>
+    <t>闽北语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E4%B8%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩中語</t>
+    <t>闽中语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%86%E4%BB%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>莆仙語</t>
+    <t>莆仙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B5%E5%B0%86%E8%AF%AD</t>
@@ -3095,25 +3050,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E9%9B%B7%E8%A9%B1</t>
   </si>
   <si>
-    <t>瓊雷話</t>
+    <t>琼雷话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>粵語方言</t>
+    <t>粤语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣州話</t>
+    <t>广州话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>香港粵語</t>
+    <t>香港粤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%BA%90%E9%9F%B3</t>
@@ -3125,19 +3080,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AF%AD</t>
   </si>
   <si>
-    <t>客家语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>客語方言</t>
+    <t>客语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%B8%A3%E8%A9%B1</t>
   </si>
   <si>
-    <t>梅縣話</t>
+    <t>梅县话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B2%E8%AF%9D</t>
@@ -3149,9 +3101,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9B%E8%AA%9E</t>
   </si>
   <si>
-    <t>贛語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%98%E8%AF%AD</t>
   </si>
   <si>
@@ -3191,7 +3140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E8%A5%BF%E5%B9%B3%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣西平話</t>
+    <t>广西平话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E8%AF%9D</t>
@@ -3215,27 +3164,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E9%A6%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>富馬話</t>
+    <t>富马话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
-    <t>繁體中文</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>正體字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E4%BD%93%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
@@ -3251,31 +3191,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>白話文</t>
+    <t>白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B7%9E%E9%9F%BB%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>中州韻白話文</t>
+    <t>中州韵白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%A9%B1%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>官話白話文</t>
+    <t>官话白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%AA%9E%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>吳語白話文</t>
+    <t>吴语白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>粵語白話文</t>
+    <t>粤语白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8F%8A%E7%AC%AC</t>
@@ -3305,7 +3245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E7%BE%85%E9%A6%AC%E5%AD%97</t>
   </si>
   <si>
-    <t>教會羅馬字</t>
+    <t>教会罗马字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B9%B2%E8%AF%AD</t>
@@ -3335,7 +3275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>臺灣語假名</t>
+    <t>台湾语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%B4%9B%E5%AD%97%E8%A7%92</t>
@@ -3347,13 +3287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E8%AA%9E%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>臺語諺文</t>
+    <t>台语谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%BE%85%E5%8F%B0%E6%96%87</t>
   </si>
   <si>
-    <t>漢羅台文</t>
+    <t>汉罗台文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%96%87%E5%AD%A6</t>
@@ -3365,7 +3305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%BC%A2%E8%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始漢藏語</t>
+    <t>原始汉藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%B1%89%E8%AF%AD</t>
@@ -3431,9 +3371,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
@@ -3443,19 +3380,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E9%83%A8%E5%9C%8B%E8%AA%9E%E6%8E%A8%E8%A1%8C%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>教育部國語推行委員會</t>
+    <t>教育部国语推行委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%8E%A8%E5%BB%A3%E8%8F%AF%E8%AA%9E%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>新加坡推廣華語理事會</t>
+    <t>新加坡推广华语理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E8%8F%AF%E8%AA%9E%E8%A6%8F%E7%AF%84%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>馬來西亞華語規範理事會</t>
+    <t>马来西亚华语规范理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%96%B9%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -3473,13 +3410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E8%B1%A1%E5%BD%A2%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>瑪雅象形文字</t>
+    <t>玛雅象形文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3491,7 +3428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -5051,7 +4988,7 @@
         <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -5077,10 +5014,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -5106,10 +5043,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -5135,10 +5072,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>90</v>
@@ -5164,10 +5101,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -5193,10 +5130,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -5222,10 +5159,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -5251,10 +5188,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -5280,10 +5217,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -5309,10 +5246,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -5338,10 +5275,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -5367,10 +5304,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5396,10 +5333,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>17</v>
@@ -5425,10 +5362,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -5454,10 +5391,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>11</v>
@@ -5483,10 +5420,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5512,10 +5449,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -5541,10 +5478,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5570,10 +5507,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5599,10 +5536,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -5628,10 +5565,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>12</v>
@@ -5657,10 +5594,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -5686,10 +5623,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -5715,10 +5652,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -5744,10 +5681,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -5773,10 +5710,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5802,10 +5739,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5831,10 +5768,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5860,10 +5797,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5889,10 +5826,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5918,10 +5855,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5947,10 +5884,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -5976,10 +5913,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -6005,10 +5942,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>28</v>
@@ -6034,10 +5971,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -6063,10 +6000,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -6092,10 +6029,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -6121,10 +6058,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -6150,10 +6087,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>7</v>
@@ -6179,10 +6116,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>8</v>
@@ -6208,10 +6145,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>15</v>
@@ -6237,10 +6174,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -6266,10 +6203,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>6</v>
@@ -6295,10 +6232,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -6324,10 +6261,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -6353,10 +6290,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6382,10 +6319,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -6411,10 +6348,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6440,10 +6377,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6469,10 +6406,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -6498,10 +6435,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6527,10 +6464,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6556,10 +6493,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6585,10 +6522,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6614,10 +6551,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -6643,10 +6580,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6672,10 +6609,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6701,10 +6638,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6730,10 +6667,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6759,10 +6696,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6788,10 +6725,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -6817,10 +6754,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6846,10 +6783,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>187</v>
@@ -6875,10 +6812,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>15</v>
@@ -6904,10 +6841,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>62</v>
@@ -6933,10 +6870,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>16</v>
@@ -6962,10 +6899,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G108" t="n">
         <v>83</v>
@@ -6991,10 +6928,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F109" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G109" t="n">
         <v>48</v>
@@ -7020,10 +6957,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>40</v>
@@ -7049,10 +6986,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -7078,10 +7015,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -7107,10 +7044,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7136,10 +7073,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7165,10 +7102,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7194,10 +7131,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7223,10 +7160,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7252,10 +7189,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7281,10 +7218,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7310,10 +7247,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1039</v>
@@ -7339,10 +7276,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>42</v>
@@ -7368,10 +7305,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -7397,10 +7334,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7426,10 +7363,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7455,10 +7392,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7484,10 +7421,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -7513,10 +7450,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7542,10 +7479,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7571,10 +7508,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7600,10 +7537,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7629,10 +7566,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7658,10 +7595,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7687,10 +7624,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>7</v>
@@ -7716,10 +7653,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7745,10 +7682,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -7774,10 +7711,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7803,10 +7740,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7832,10 +7769,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7861,10 +7798,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7890,10 +7827,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7919,10 +7856,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7948,10 +7885,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F142" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G142" t="n">
         <v>6</v>
@@ -7977,10 +7914,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>9</v>
@@ -8006,10 +7943,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -8035,10 +7972,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>5</v>
@@ -8064,10 +8001,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -8093,10 +8030,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8122,10 +8059,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8180,10 +8117,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8209,10 +8146,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8238,10 +8175,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8267,10 +8204,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>9</v>
@@ -8296,10 +8233,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -8325,10 +8262,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -8354,10 +8291,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8383,10 +8320,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8412,10 +8349,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8441,10 +8378,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8470,10 +8407,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8499,10 +8436,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -8528,10 +8465,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8557,10 +8494,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -8586,10 +8523,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8615,10 +8552,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8644,10 +8581,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8673,10 +8610,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8702,10 +8639,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -8731,10 +8668,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8760,10 +8697,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8789,10 +8726,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8818,10 +8755,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -8847,10 +8784,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -8876,10 +8813,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8905,10 +8842,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8934,10 +8871,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8963,10 +8900,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8992,10 +8929,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9050,10 +8987,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9079,10 +9016,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>11</v>
@@ -9108,10 +9045,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9137,10 +9074,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>4</v>
@@ -9166,10 +9103,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -9195,10 +9132,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>6</v>
@@ -9224,10 +9161,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>41</v>
@@ -9253,10 +9190,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>7</v>
@@ -9282,10 +9219,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F188" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9311,10 +9248,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G189" t="n">
         <v>18</v>
@@ -9340,10 +9277,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -9369,10 +9306,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -9398,10 +9335,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>26</v>
@@ -9427,10 +9364,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>202</v>
       </c>
       <c r="G193" t="n">
         <v>7</v>
@@ -9456,10 +9393,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>109</v>
@@ -9485,10 +9422,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>7</v>
@@ -9543,10 +9480,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9572,10 +9509,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9601,10 +9538,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -9630,10 +9567,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -9659,10 +9596,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9688,10 +9625,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F202" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9717,10 +9654,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -9746,10 +9683,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9804,10 +9741,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9833,10 +9770,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9862,10 +9799,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9891,10 +9828,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>10</v>
@@ -9920,10 +9857,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9949,10 +9886,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>8</v>
@@ -9978,10 +9915,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -10007,10 +9944,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10036,10 +9973,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -10065,10 +10002,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -10094,10 +10031,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10123,10 +10060,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>25</v>
@@ -10152,10 +10089,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -10181,10 +10118,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10210,10 +10147,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10268,10 +10205,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -10297,10 +10234,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="G223" t="n">
         <v>14</v>
@@ -10326,10 +10263,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10355,10 +10292,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10384,10 +10321,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F226" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G226" t="n">
         <v>7</v>
@@ -10413,10 +10350,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F227" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -10442,10 +10379,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -10471,10 +10408,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10500,10 +10437,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -10529,10 +10466,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10558,10 +10495,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10587,10 +10524,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10616,10 +10553,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -10645,10 +10582,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -10674,10 +10611,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -10703,10 +10640,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10732,10 +10669,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10761,10 +10698,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10790,10 +10727,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10819,10 +10756,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10848,10 +10785,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10877,10 +10814,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10906,10 +10843,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10935,10 +10872,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10964,10 +10901,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10993,10 +10930,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11022,10 +10959,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11051,10 +10988,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11080,10 +11017,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11109,10 +11046,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11138,10 +11075,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -11167,10 +11104,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11196,10 +11133,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11225,10 +11162,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11254,10 +11191,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F256" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11283,10 +11220,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F257" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -11312,10 +11249,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F258" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G258" t="n">
         <v>6</v>
@@ -11341,10 +11278,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F259" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G259" t="n">
         <v>10</v>
@@ -11370,10 +11307,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F260" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11399,10 +11336,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F261" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11428,10 +11365,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F262" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11457,10 +11394,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F263" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11486,10 +11423,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F264" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11515,10 +11452,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F265" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11544,10 +11481,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F266" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -11573,10 +11510,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F267" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G267" t="n">
         <v>6</v>
@@ -11602,10 +11539,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F268" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -11631,10 +11568,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F269" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11660,10 +11597,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F270" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11689,10 +11626,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F271" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -11718,10 +11655,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F272" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11747,10 +11684,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F273" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11776,10 +11713,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F274" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11805,10 +11742,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11834,10 +11771,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F276" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11863,10 +11800,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11892,10 +11829,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F278" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11921,10 +11858,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F279" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -11950,10 +11887,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F280" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11979,10 +11916,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F281" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G281" t="n">
         <v>26</v>
@@ -12008,10 +11945,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F282" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G282" t="n">
         <v>7</v>
@@ -12037,10 +11974,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F283" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12066,10 +12003,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F284" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12095,10 +12032,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F285" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12124,10 +12061,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F286" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12153,10 +12090,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F287" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -12182,10 +12119,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F288" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12211,10 +12148,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F289" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12240,10 +12177,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F290" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12269,10 +12206,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F291" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12298,10 +12235,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F292" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G292" t="n">
         <v>6</v>
@@ -12327,10 +12264,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F293" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G293" t="n">
         <v>8</v>
@@ -12356,10 +12293,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F294" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G294" t="n">
         <v>5</v>
@@ -12385,10 +12322,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F295" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12414,10 +12351,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F296" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G296" t="n">
         <v>49</v>
@@ -12443,10 +12380,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F297" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12472,10 +12409,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F298" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12501,10 +12438,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F299" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12530,10 +12467,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F300" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12559,10 +12496,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F301" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12588,10 +12525,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F302" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12617,10 +12554,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F303" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12646,10 +12583,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F304" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12675,10 +12612,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F305" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -12704,10 +12641,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F306" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12733,10 +12670,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F307" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12762,10 +12699,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F308" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12791,10 +12728,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F309" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12820,10 +12757,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F310" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12849,10 +12786,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F311" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12878,10 +12815,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F312" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12907,10 +12844,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F313" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12936,10 +12873,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F314" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12965,10 +12902,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F315" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12994,10 +12931,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F316" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13023,10 +12960,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F317" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G317" t="n">
         <v>5</v>
@@ -13052,10 +12989,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F318" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G318" t="n">
         <v>3</v>
@@ -13081,10 +13018,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F319" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -13110,10 +13047,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F320" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13139,10 +13076,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F321" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13168,10 +13105,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F322" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13197,10 +13134,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F323" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13226,10 +13163,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F324" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -13255,10 +13192,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F325" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -13284,10 +13221,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F326" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13313,10 +13250,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F327" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G327" t="n">
         <v>4</v>
@@ -13342,10 +13279,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F328" t="s">
-        <v>618</v>
+        <v>234</v>
       </c>
       <c r="G328" t="n">
         <v>5</v>
@@ -13371,10 +13308,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F329" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G329" t="n">
         <v>7</v>
@@ -13400,10 +13337,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F330" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13429,10 +13366,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F331" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13458,10 +13395,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F332" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13487,10 +13424,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F333" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G333" t="n">
         <v>5</v>
@@ -13516,10 +13453,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F334" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13545,10 +13482,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F335" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13574,10 +13511,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>44</v>
       </c>
       <c r="G336" t="n">
         <v>8</v>
@@ -13603,10 +13540,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F337" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13632,10 +13569,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F338" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -13661,10 +13598,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F339" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13690,10 +13627,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F340" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G340" t="n">
         <v>4</v>
@@ -13719,10 +13656,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F341" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G341" t="n">
         <v>4</v>
@@ -13748,10 +13685,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F342" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13777,10 +13714,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F343" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13806,10 +13743,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F344" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G344" t="n">
         <v>4</v>
@@ -13835,10 +13772,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F345" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13864,10 +13801,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F346" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G346" t="n">
         <v>6</v>
@@ -13893,10 +13830,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F347" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13922,10 +13859,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F348" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13951,10 +13888,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F349" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13980,10 +13917,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F350" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14009,10 +13946,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F351" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G351" t="n">
         <v>7</v>
@@ -14038,10 +13975,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F352" t="s">
-        <v>652</v>
+        <v>152</v>
       </c>
       <c r="G352" t="n">
         <v>6</v>
@@ -14067,10 +14004,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F353" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14096,10 +14033,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F354" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14125,10 +14062,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F355" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G355" t="n">
         <v>8</v>
@@ -14154,10 +14091,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F356" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G356" t="n">
         <v>5</v>
@@ -14183,10 +14120,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F357" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G357" t="n">
         <v>17</v>
@@ -14212,10 +14149,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F358" t="s">
-        <v>652</v>
+        <v>152</v>
       </c>
       <c r="G358" t="n">
         <v>11</v>
@@ -14241,10 +14178,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F359" t="s">
-        <v>652</v>
+        <v>152</v>
       </c>
       <c r="G359" t="n">
         <v>15</v>
@@ -14270,10 +14207,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F360" t="s">
-        <v>652</v>
+        <v>152</v>
       </c>
       <c r="G360" t="n">
         <v>19</v>
@@ -14299,10 +14236,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F361" t="s">
-        <v>652</v>
+        <v>152</v>
       </c>
       <c r="G361" t="n">
         <v>5</v>
@@ -14328,10 +14265,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F362" t="s">
-        <v>652</v>
+        <v>152</v>
       </c>
       <c r="G362" t="n">
         <v>7</v>
@@ -14357,10 +14294,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F363" t="s">
-        <v>652</v>
+        <v>152</v>
       </c>
       <c r="G363" t="n">
         <v>5</v>
@@ -14386,10 +14323,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F364" t="s">
-        <v>652</v>
+        <v>152</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14415,10 +14352,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F365" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G365" t="n">
         <v>7</v>
@@ -14444,10 +14381,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F366" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G366" t="n">
         <v>5</v>
@@ -14473,10 +14410,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F367" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14502,10 +14439,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F368" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14531,10 +14468,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F369" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14589,10 +14526,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F371" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G371" t="n">
         <v>4</v>
@@ -14676,10 +14613,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F374" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -14734,10 +14671,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F376" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14792,10 +14729,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F378" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G378" t="n">
         <v>9</v>
@@ -14821,10 +14758,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F379" t="s">
-        <v>680</v>
+        <v>148</v>
       </c>
       <c r="G379" t="n">
         <v>4</v>
@@ -14850,10 +14787,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F380" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="G380" t="n">
         <v>3</v>
@@ -14879,10 +14816,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F381" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14908,10 +14845,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="F382" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="G382" t="n">
         <v>8</v>
@@ -14937,10 +14874,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F383" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -14966,10 +14903,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="F384" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="G384" t="n">
         <v>4</v>
@@ -14995,10 +14932,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="F385" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -15024,10 +14961,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="F386" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="G386" t="n">
         <v>8</v>
@@ -15053,10 +14990,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F387" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15082,10 +15019,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F388" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="G388" t="n">
         <v>14</v>
@@ -15140,10 +15077,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F390" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -15169,10 +15106,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="F391" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -15198,10 +15135,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="F392" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15256,10 +15193,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F394" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15285,10 +15222,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F395" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -15343,10 +15280,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F397" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15372,10 +15309,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="F398" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15401,10 +15338,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F399" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G399" t="n">
         <v>3</v>
@@ -15430,10 +15367,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F400" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="G400" t="n">
         <v>5</v>
@@ -15459,10 +15396,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F401" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G401" t="n">
         <v>12</v>
@@ -15488,10 +15425,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F402" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -15517,10 +15454,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="F403" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15546,10 +15483,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F404" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -15575,10 +15512,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F405" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15604,10 +15541,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="F406" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15633,10 +15570,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F407" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15662,10 +15599,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="F408" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -15691,10 +15628,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F409" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15720,10 +15657,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="F410" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15749,10 +15686,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F411" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G411" t="n">
         <v>4</v>
@@ -15778,10 +15715,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F412" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="G412" t="n">
         <v>3</v>
@@ -15807,10 +15744,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F413" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15836,10 +15773,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F414" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15865,10 +15802,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F415" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15894,10 +15831,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="F416" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15923,10 +15860,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F417" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="G417" t="n">
         <v>3</v>
@@ -15952,10 +15889,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="F418" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15981,10 +15918,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F419" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -16010,10 +15947,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F420" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="G420" t="n">
         <v>9</v>
@@ -16039,10 +15976,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F421" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -16068,10 +16005,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F422" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -16097,10 +16034,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F423" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G423" t="n">
         <v>8</v>
@@ -16126,10 +16063,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="F424" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16155,10 +16092,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="F425" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16184,10 +16121,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="F426" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16213,10 +16150,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="F427" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16242,10 +16179,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F428" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G428" t="n">
         <v>5</v>
@@ -16271,10 +16208,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="F429" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="G429" t="n">
         <v>3</v>
@@ -16300,10 +16237,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="F430" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16329,10 +16266,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="F431" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16358,10 +16295,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="F432" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16387,10 +16324,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F433" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16445,10 +16382,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="F435" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16474,10 +16411,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="F436" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16503,10 +16440,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="F437" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16561,10 +16498,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F439" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16590,10 +16527,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="F440" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16619,10 +16556,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F441" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16648,10 +16585,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="F442" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16677,10 +16614,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="F443" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="G443" t="n">
         <v>15</v>
@@ -16706,10 +16643,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="F444" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="G444" t="n">
         <v>19</v>
@@ -16735,10 +16672,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="F445" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="G445" t="n">
         <v>10</v>
@@ -16764,10 +16701,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="F446" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -16793,10 +16730,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="F447" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16822,10 +16759,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="F448" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16851,10 +16788,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="F449" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G449" t="n">
         <v>6</v>
@@ -16880,10 +16817,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="F450" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16909,10 +16846,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="F451" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="G451" t="n">
         <v>3</v>
@@ -16938,10 +16875,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="F452" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16967,10 +16904,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="F453" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16996,10 +16933,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F454" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -17025,10 +16962,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="F455" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17054,10 +16991,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F456" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17083,10 +17020,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F457" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17112,10 +17049,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F458" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17141,10 +17078,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F459" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17170,10 +17107,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F460" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -17199,10 +17136,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="F461" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17228,10 +17165,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="F462" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17257,10 +17194,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="F463" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17286,10 +17223,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="F464" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17315,10 +17252,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="F465" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -17344,10 +17281,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F466" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17373,10 +17310,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="F467" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -17402,10 +17339,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="F468" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17431,10 +17368,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="F469" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17460,10 +17397,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F470" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17489,10 +17426,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F471" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17518,10 +17455,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="F472" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17547,10 +17484,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F473" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -17576,10 +17513,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="F474" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="G474" t="n">
         <v>4</v>
@@ -17605,10 +17542,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="F475" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17634,10 +17571,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="F476" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G476" t="n">
         <v>2</v>
@@ -17663,10 +17600,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F477" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17692,10 +17629,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="F478" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="G478" t="n">
         <v>3</v>
@@ -17721,10 +17658,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="F479" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17750,10 +17687,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F480" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17779,10 +17716,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="F481" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17808,10 +17745,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="F482" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17837,10 +17774,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="F483" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17866,10 +17803,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="F484" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17895,10 +17832,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="F485" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17924,10 +17861,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="F486" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -17953,10 +17890,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="F487" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17982,10 +17919,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="F488" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18011,10 +17948,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="F489" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18040,10 +17977,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="F490" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18069,10 +18006,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="F491" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18098,10 +18035,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="F492" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -18127,10 +18064,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="F493" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18156,10 +18093,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="F494" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="G494" t="n">
         <v>7</v>
@@ -18185,10 +18122,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="F495" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18214,10 +18151,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="F496" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -18243,10 +18180,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F497" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18272,10 +18209,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="F498" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18301,10 +18238,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="F499" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18330,10 +18267,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="F500" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18359,10 +18296,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="F501" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18388,10 +18325,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="F502" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18417,10 +18354,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="F503" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18446,10 +18383,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="F504" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18475,10 +18412,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="F505" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18504,10 +18441,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="F506" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="G506" t="n">
         <v>3</v>
@@ -18533,10 +18470,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="F507" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18562,10 +18499,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="F508" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="G508" t="n">
         <v>4</v>
@@ -18591,10 +18528,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="F509" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="G509" t="n">
         <v>4</v>
@@ -18620,10 +18557,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="F510" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="G510" t="n">
         <v>19</v>
@@ -18649,10 +18586,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F511" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18678,10 +18615,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="F512" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18707,10 +18644,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="F513" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="G513" t="n">
         <v>3</v>
@@ -18736,10 +18673,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="F514" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="G514" t="n">
         <v>3</v>
@@ -18765,10 +18702,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="F515" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="G515" t="n">
         <v>3</v>
@@ -18794,10 +18731,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="F516" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18823,10 +18760,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="F517" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="G517" t="n">
         <v>2</v>
@@ -18852,10 +18789,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="F518" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18881,10 +18818,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="F519" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="G519" t="n">
         <v>6</v>
@@ -18910,10 +18847,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="F520" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="G520" t="n">
         <v>3</v>
@@ -18939,10 +18876,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F521" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18968,10 +18905,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="F522" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18997,10 +18934,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="F523" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="G523" t="n">
         <v>2</v>
@@ -19026,10 +18963,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F524" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19055,10 +18992,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="F525" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19084,10 +19021,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="F526" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19113,10 +19050,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="F527" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19142,10 +19079,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="F528" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -19171,10 +19108,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="F529" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19200,10 +19137,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="F530" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19229,10 +19166,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="F531" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="G531" t="n">
         <v>2</v>
@@ -19258,10 +19195,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="F532" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="G532" t="n">
         <v>6</v>
@@ -19287,10 +19224,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="F533" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="G533" t="n">
         <v>23</v>
@@ -19316,10 +19253,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="F534" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19345,10 +19282,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="F535" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19374,10 +19311,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F536" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19403,10 +19340,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="F537" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19432,10 +19369,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="F538" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19461,10 +19398,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F539" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19490,10 +19427,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F540" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="G540" t="n">
         <v>12</v>
@@ -19519,10 +19456,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F541" t="s">
-        <v>952</v>
+        <v>6</v>
       </c>
       <c r="G541" t="n">
         <v>17</v>
@@ -19548,10 +19485,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="F542" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19577,10 +19514,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="F543" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19606,10 +19543,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="F544" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19635,10 +19572,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="F545" t="s">
-        <v>956</v>
+        <v>406</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19664,10 +19601,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="F546" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19693,10 +19630,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="F547" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="G547" t="n">
         <v>5</v>
@@ -19722,10 +19659,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="F548" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19751,10 +19688,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="F549" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19780,10 +19717,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="F550" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19809,10 +19746,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="F551" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19838,10 +19775,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="F552" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19867,10 +19804,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="F553" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19896,10 +19833,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="F554" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19925,10 +19862,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="F555" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19954,10 +19891,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="F556" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19983,10 +19920,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="F557" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20012,10 +19949,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="F558" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20041,10 +19978,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="F559" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20070,10 +20007,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="F560" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20099,10 +20036,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="F561" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20128,10 +20065,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="F562" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20157,10 +20094,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="F563" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20186,10 +20123,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="F564" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20215,10 +20152,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="F565" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20244,10 +20181,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="F566" t="s">
-        <v>998</v>
+        <v>56</v>
       </c>
       <c r="G566" t="n">
         <v>2</v>
@@ -20273,10 +20210,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="F567" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20302,10 +20239,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="F568" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20331,10 +20268,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="F569" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20360,10 +20297,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="F570" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20389,10 +20326,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="F571" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20418,10 +20355,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="F572" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20447,10 +20384,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
       <c r="F573" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20476,10 +20413,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="F574" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20505,10 +20442,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F575" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20534,10 +20471,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="F576" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20563,10 +20500,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="F577" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20592,10 +20529,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="F578" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20621,10 +20558,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="F579" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20650,10 +20587,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="F580" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20679,10 +20616,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="F581" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20708,10 +20645,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="F582" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20737,10 +20674,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="F583" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20766,10 +20703,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="F584" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20795,10 +20732,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="F585" t="s">
-        <v>1036</v>
+        <v>76</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20824,10 +20761,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="F586" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20853,10 +20790,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="F587" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20882,10 +20819,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="F588" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20911,10 +20848,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="F589" t="s">
-        <v>1044</v>
+        <v>72</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20940,10 +20877,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="F590" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20969,10 +20906,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="F591" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -20998,10 +20935,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="F592" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21027,10 +20964,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="F593" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21056,10 +20993,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="F594" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21085,10 +21022,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="F595" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21114,10 +21051,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="F596" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21143,10 +21080,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="F597" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21172,10 +21109,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="F598" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21201,10 +21138,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="F599" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21230,10 +21167,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="F600" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21259,10 +21196,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F601" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21288,10 +21225,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="F602" t="s">
-        <v>1068</v>
+        <v>0</v>
       </c>
       <c r="G602" t="n">
         <v>286</v>
@@ -21317,10 +21254,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1069</v>
+        <v>1051</v>
       </c>
       <c r="F603" t="s">
-        <v>1070</v>
+        <v>414</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21346,10 +21283,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="F604" t="s">
-        <v>1072</v>
+        <v>823</v>
       </c>
       <c r="G604" t="n">
         <v>4</v>
@@ -21375,10 +21312,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
       <c r="F605" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21404,10 +21341,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1075</v>
+        <v>1055</v>
       </c>
       <c r="F606" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21433,10 +21370,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="F607" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21462,10 +21399,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
       <c r="F608" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21491,10 +21428,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1081</v>
+        <v>1061</v>
       </c>
       <c r="F609" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21520,10 +21457,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
       <c r="F610" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21549,10 +21486,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
       <c r="F611" t="s">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21578,10 +21515,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
       <c r="F612" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21607,10 +21544,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1089</v>
+        <v>1069</v>
       </c>
       <c r="F613" t="s">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="G613" t="n">
         <v>4</v>
@@ -21636,10 +21573,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="F614" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21665,10 +21602,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1091</v>
+        <v>1071</v>
       </c>
       <c r="F615" t="s">
-        <v>1092</v>
+        <v>1072</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21694,10 +21631,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1093</v>
+        <v>1073</v>
       </c>
       <c r="F616" t="s">
-        <v>1094</v>
+        <v>1074</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21723,10 +21660,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1095</v>
+        <v>1075</v>
       </c>
       <c r="F617" t="s">
-        <v>1096</v>
+        <v>1076</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21752,10 +21689,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1097</v>
+        <v>1077</v>
       </c>
       <c r="F618" t="s">
-        <v>1098</v>
+        <v>1078</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21781,10 +21718,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="F619" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -21810,10 +21747,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="F620" t="s">
-        <v>1102</v>
+        <v>1082</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21839,10 +21776,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1103</v>
+        <v>1083</v>
       </c>
       <c r="F621" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -21868,10 +21805,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1105</v>
+        <v>1085</v>
       </c>
       <c r="F622" t="s">
-        <v>1106</v>
+        <v>1086</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -21897,10 +21834,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="F623" t="s">
-        <v>1108</v>
+        <v>1088</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -21926,10 +21863,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="F624" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -21955,10 +21892,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="F625" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -21984,10 +21921,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="F626" t="s">
-        <v>1114</v>
+        <v>1094</v>
       </c>
       <c r="G626" t="n">
         <v>2</v>
@@ -22013,10 +21950,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F627" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22042,10 +21979,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="F628" t="s">
-        <v>1116</v>
+        <v>1096</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22071,10 +22008,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1117</v>
+        <v>1097</v>
       </c>
       <c r="F629" t="s">
-        <v>1118</v>
+        <v>1098</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22100,10 +22037,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1119</v>
+        <v>1099</v>
       </c>
       <c r="F630" t="s">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22129,10 +22066,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F631" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22187,10 +22124,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1121</v>
+        <v>1101</v>
       </c>
       <c r="F633" t="s">
-        <v>1122</v>
+        <v>1102</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22216,10 +22153,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1123</v>
+        <v>1103</v>
       </c>
       <c r="F634" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
       <c r="G634" t="n">
         <v>2</v>
@@ -22245,10 +22182,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="F635" t="s">
-        <v>1126</v>
+        <v>1106</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22274,10 +22211,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1127</v>
+        <v>1107</v>
       </c>
       <c r="F636" t="s">
-        <v>1128</v>
+        <v>1108</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22303,10 +22240,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1129</v>
+        <v>1109</v>
       </c>
       <c r="F637" t="s">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="G637" t="n">
         <v>2</v>
@@ -22332,10 +22269,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="F638" t="s">
-        <v>1132</v>
+        <v>1112</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22361,10 +22298,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F639" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="G639" t="n">
         <v>15</v>
@@ -22390,10 +22327,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1133</v>
+        <v>1113</v>
       </c>
       <c r="F640" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22419,10 +22356,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1135</v>
+        <v>1115</v>
       </c>
       <c r="F641" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22448,10 +22385,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
       <c r="F642" t="s">
-        <v>1138</v>
+        <v>398</v>
       </c>
       <c r="G642" t="n">
         <v>2</v>
@@ -22477,10 +22414,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
       <c r="F643" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
       <c r="G643" t="n">
         <v>4</v>
@@ -22506,10 +22443,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F644" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22535,10 +22472,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="F645" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22564,10 +22501,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="F646" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22593,10 +22530,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="F647" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22622,10 +22559,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="F648" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22651,10 +22588,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="F649" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22680,10 +22617,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F650" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -22709,10 +22646,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
       <c r="F651" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -22738,10 +22675,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="F652" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
       <c r="G652" t="n">
         <v>3</v>
@@ -22767,10 +22704,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
       <c r="F653" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -22796,10 +22733,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
       <c r="F654" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>

--- a/xlsx/汉字_intext.xlsx
+++ b/xlsx/汉字_intext.xlsx
@@ -29,7 +29,7 @@
     <t>语素文字</t>
   </si>
   <si>
-    <t>政策_政策_政治_汉字</t>
+    <t>体育运动_体育运动_文化_汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
@@ -6968,7 +6968,7 @@
         <v>94</v>
       </c>
       <c r="G108" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
